--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3195475.287530573</v>
+        <v>3188458.272638862</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>160.8139200470133</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>252.7077160573362</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>154.8229679689706</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>85.88160312186136</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.63007230513526</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>60.46179076613092</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>13.96214174992418</v>
       </c>
       <c r="R7" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>97.6352909288865</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>233.6257157225932</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>30.60408762095435</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>97.39479945818836</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498001</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>59.07971398478242</v>
+        <v>30.51875615035228</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>15.75208669539932</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>131.8312713849236</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>5.107731335945625</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750042</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>237.3965091869248</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>112.1441635494136</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,7 +3009,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>149.0799667719507</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>62.28747238246468</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>174.2106622993758</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>173.9898110906269</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1610.120910258947</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2534.710787940431</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2316.076120912494</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2062.314335550585</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1731.251448207015</v>
       </c>
       <c r="W2" t="n">
-        <v>2386.860082298881</v>
+        <v>1378.482792936901</v>
       </c>
       <c r="X2" t="n">
-        <v>2386.860082298881</v>
+        <v>1005.017034675821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1996.720750323069</v>
+        <v>614.8777027000092</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.8087152951864</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C4" t="n">
-        <v>290.8087152951864</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>140.6920758828507</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>140.6920758828507</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>140.6920758828507</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>140.6920758828507</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>290.8087152951864</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>290.8087152951864</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>290.8087152951864</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>290.8087152951864</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.8087152951864</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4579,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834949</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564835</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X5" t="n">
-        <v>1521.073833303755</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1130.934501327943</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4652,19 +4652,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>714.0258107216623</v>
       </c>
       <c r="R7" t="n">
-        <v>597.8010803716834</v>
+        <v>714.0258107216623</v>
       </c>
       <c r="S7" t="n">
-        <v>597.8010803716834</v>
+        <v>714.0258107216623</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>714.0258107216623</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036446</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>152.5644878091387</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
         <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1426.498002692507</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1036.358670716696</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4901,7 +4901,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>386.0450565669176</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>386.0450565669176</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>231.7461491374206</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>484.423641878219</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>484.423641878219</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>484.423641878219</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>484.423641878219</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>484.423641878219</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>386.0450565669176</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>386.0450565669176</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,28 +5026,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>709.4512536188989</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>709.4512536188989</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>649.7747748463914</v>
+        <v>634.8589471141159</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.9821957028613</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="14">
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,7 +5314,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.4221461351941</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>563.4221461351941</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1483.005071875681</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1193.876433089239</v>
       </c>
       <c r="V16" t="n">
-        <v>852.8393161721547</v>
+        <v>939.1919448833521</v>
       </c>
       <c r="W16" t="n">
-        <v>563.4221461351941</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="X16" t="n">
-        <v>563.4221461351941</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.4221461351941</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5600,16 +5600,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5743,37 +5743,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,40 +5974,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6174,22 +6174,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6208,37 +6208,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6253,10 +6253,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6305,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4000.816194683224</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3831.880011755317</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3718.603078877121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4437.14914771935</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4437.14914771935</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4182.464659513464</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4182.464659513464</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4182.464659513464</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4182.464659513464</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6490,25 +6490,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6648,22 +6648,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6934,19 +6934,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,28 +7004,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028583</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,55 +7150,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.373105721172</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>584.7466045204288</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C40" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D40" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E40" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123425</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>1322.945904598937</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W40" t="n">
-        <v>1033.528734561976</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X40" t="n">
-        <v>805.539183663959</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y40" t="n">
-        <v>584.7466045204288</v>
+        <v>271.6683216085047</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7423,16 +7423,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>349.7653003338569</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>85.30006332127834</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>285.1031356539331</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711641</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>223.674264993448</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>180.0237016735875</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>166.6299414042547</v>
+        <v>195.1908992386849</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,13 +23706,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>205.7954743629899</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>120.3063719389044</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>161.385837127432</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338503</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>14.74113413690318</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>36.47130946879875</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>117.5445077994726</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>77.92698102445223</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26076,10 +26076,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>51.71984429841024</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="8">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380335</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380335</v>
-      </c>
       <c r="E2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672198</v>
       </c>
       <c r="F2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="H2" t="n">
         <v>645197.9485672197</v>
       </c>
       <c r="I2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="J2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="K2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="M2" t="n">
         <v>645197.9485672195</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="P2" t="n">
         <v>645197.9485672195</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26450,10 +26450,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26493,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152242.4553911435</v>
+        <v>-152242.4553911429</v>
       </c>
       <c r="C6" t="n">
+        <v>437725.4238234014</v>
+      </c>
+      <c r="D6" t="n">
         <v>437725.4238234013</v>
       </c>
-      <c r="D6" t="n">
-        <v>437725.4238234014</v>
-      </c>
       <c r="E6" t="n">
-        <v>13004.91652016751</v>
+        <v>12030.32526044626</v>
       </c>
       <c r="F6" t="n">
-        <v>538164.9529970638</v>
+        <v>537190.3617373421</v>
       </c>
       <c r="G6" t="n">
-        <v>538164.9529970638</v>
+        <v>537190.3617373422</v>
       </c>
       <c r="H6" t="n">
-        <v>538164.9529970639</v>
+        <v>537190.3617373423</v>
       </c>
       <c r="I6" t="n">
-        <v>538164.952997064</v>
+        <v>537190.3617373419</v>
       </c>
       <c r="J6" t="n">
-        <v>361741.7338044706</v>
+        <v>360767.1425447492</v>
       </c>
       <c r="K6" t="n">
-        <v>538164.9529970638</v>
+        <v>537190.3617373421</v>
       </c>
       <c r="L6" t="n">
-        <v>538164.9529970639</v>
+        <v>537190.3617373421</v>
       </c>
       <c r="M6" t="n">
-        <v>403363.9377632268</v>
+        <v>402389.346503505</v>
       </c>
       <c r="N6" t="n">
-        <v>538164.952997064</v>
+        <v>537190.3617373422</v>
       </c>
       <c r="O6" t="n">
-        <v>538164.9529970634</v>
+        <v>537190.3617373421</v>
       </c>
       <c r="P6" t="n">
-        <v>538164.9529970638</v>
+        <v>537190.3617373422</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.425534987941535e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.425534987941535e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.425534987941535e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.425534987941535e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.425534987941535e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.425534987941535e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.425534987941535e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>13.60179276195819</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>96.53325266007684</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>12.4238531296572</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>70.28928571993379</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.1037693583453</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>190.7623767421584</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>15.16060820499012</v>
       </c>
       <c r="R7" t="n">
-        <v>17.64056718375429</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>316.1488790919085</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>136.1053849558759</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>14.59587156758264</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>128.3148559308488</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>462.3874039146953</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>599.0230052898812</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>334.5577682773026</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>492.1965505854578</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303323</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>506.0379672345562</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>429.2814066296118</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3188458.272638862</v>
+        <v>3193397.535487894</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8643724.351692522</v>
+        <v>8643724.351692524</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>160.8139200470133</v>
+        <v>142.9046269258104</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>154.8229679689706</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>37.83808333974897</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>66.58496257157202</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>60.46179076613092</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.96214174992418</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>196.7218456862864</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>324.6364368999332</v>
       </c>
       <c r="G8" t="n">
-        <v>97.6352909288865</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.60408762095435</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>30.51875615035228</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>128.3837363285895</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>15.75208669539932</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>193.486767012043</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>5.107731335945625</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>188.4590648403943</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>167.7163300770488</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>64.34190763938388</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498018</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.28747238246468</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>173.9898110906269</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228.2778626358874</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2778626358874</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2534.710787940431</v>
+        <v>2552.800983012353</v>
       </c>
       <c r="T2" t="n">
-        <v>2316.076120912494</v>
+        <v>2334.166315984416</v>
       </c>
       <c r="U2" t="n">
-        <v>2062.314335550585</v>
+        <v>2080.404530622508</v>
       </c>
       <c r="V2" t="n">
-        <v>1731.251448207015</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W2" t="n">
-        <v>1378.482792936901</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X2" t="n">
-        <v>1005.017034675821</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.8777027000092</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>350.9495687306105</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>92.16326802213109</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>92.16326802213109</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>92.16326802213109</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.0401021781393</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C5" t="n">
-        <v>433.0775852377275</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>135.1239238328564</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>121.2005197714473</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2636.076575092838</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2305.013687749267</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.245032479153</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1578.779274218073</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1188.639942242261</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="6">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>714.0258107216623</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>714.0258107216623</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>714.0258107216623</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>714.0258107216623</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>424.8522003762303</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V7" t="n">
-        <v>424.8522003762303</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>424.8522003762303</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>424.8522003762303</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>159.5099885583422</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C8" t="n">
-        <v>159.5099885583422</v>
+        <v>395.781978709989</v>
       </c>
       <c r="D8" t="n">
-        <v>159.5099885583422</v>
+        <v>395.781978709989</v>
       </c>
       <c r="E8" t="n">
-        <v>159.5099885583422</v>
+        <v>395.781978709989</v>
       </c>
       <c r="F8" t="n">
-        <v>152.5644878091387</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.109828622464</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321495</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198137</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374206</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>84.85620163951026</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>84.85620163951026</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>84.85620163951026</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>84.85620163951026</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5068,7 +5068,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.0663679705859</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5232,19 +5232,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>920.3704617344997</v>
       </c>
       <c r="X13" t="n">
-        <v>634.8589471141159</v>
+        <v>692.3809108364824</v>
       </c>
       <c r="Y13" t="n">
-        <v>414.0663679705859</v>
+        <v>562.7003690904323</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,22 +5263,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514085</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5366,16 +5366,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.3337308726216</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1483.005071875681</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1193.876433089239</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>939.1919448833521</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W16" t="n">
-        <v>649.7747748463914</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X16" t="n">
-        <v>649.7747748463914</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y16" t="n">
-        <v>428.9821957028613</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5503,25 +5503,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,19 +5594,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O18" t="n">
         <v>2123.441607278215</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,7 +6086,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,10 +6214,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,7 +6226,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514085</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,7 +6323,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6451,49 +6451,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,7 +6560,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>545.8631874464247</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1218.430732698466</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>994.6453174879722</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>994.6453174879722</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>994.6453174879722</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>994.6453174879722</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>766.6557665899549</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>545.8631874464247</v>
       </c>
     </row>
     <row r="32">
@@ -6688,49 +6688,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,7 +6797,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6916,67 +6916,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1313.886294955175</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1090.100879744681</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>1322.84934122136</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7195,13 +7195,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>208.7516828383384</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383384</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W40" t="n">
-        <v>720.4504516500522</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X40" t="n">
-        <v>492.4609007520348</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y40" t="n">
-        <v>271.6683216085047</v>
+        <v>247.8029164824583</v>
       </c>
     </row>
     <row r="41">
@@ -7393,55 +7393,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,28 +7478,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2358.217138262064</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,22 +9242,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>195.1908992386849</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>90.20091702350527</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>205.7954743629899</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>32.22288837699412</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>161.385837127432</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>33.08849621799493</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>30.20447990655441</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>14.74113413690324</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>161.3677477496533</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.5445077994726</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>17.41360169142689</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>82.98990566424405</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>51.71984429841024</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>737661.6364456249</v>
+        <v>737661.6364456248</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.636445625</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737661.6364456248</v>
+        <v>737661.6364456249</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380338</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380334</v>
-      </c>
       <c r="E2" t="n">
+        <v>645197.9485672195</v>
+      </c>
+      <c r="F2" t="n">
         <v>645197.9485672198</v>
       </c>
-      <c r="F2" t="n">
-        <v>645197.9485672194</v>
-      </c>
       <c r="G2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645197.9485672191</v>
+      </c>
+      <c r="I2" t="n">
         <v>645197.9485672195</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645197.9485672197</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645197.9485672192</v>
       </c>
       <c r="J2" t="n">
         <v>645197.9485672194</v>
@@ -26343,19 +26343,19 @@
         <v>645197.9485672194</v>
       </c>
       <c r="L2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672197</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="O2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672198</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672197</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26453,10 +26453,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26478,22 +26478,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-152242.4553911429</v>
+        <v>-152242.4553911432</v>
       </c>
       <c r="C6" t="n">
+        <v>437725.4238234018</v>
+      </c>
+      <c r="D6" t="n">
         <v>437725.4238234014</v>
       </c>
-      <c r="D6" t="n">
-        <v>437725.4238234013</v>
-      </c>
       <c r="E6" t="n">
-        <v>12030.32526044626</v>
+        <v>12907.45739419575</v>
       </c>
       <c r="F6" t="n">
-        <v>537190.3617373421</v>
+        <v>538067.493871092</v>
       </c>
       <c r="G6" t="n">
-        <v>537190.3617373422</v>
+        <v>538067.4938710915</v>
       </c>
       <c r="H6" t="n">
-        <v>537190.3617373423</v>
+        <v>538067.4938710913</v>
       </c>
       <c r="I6" t="n">
-        <v>537190.3617373419</v>
+        <v>538067.4938710917</v>
       </c>
       <c r="J6" t="n">
-        <v>360767.1425447492</v>
+        <v>361644.2746784986</v>
       </c>
       <c r="K6" t="n">
-        <v>537190.3617373421</v>
+        <v>538067.4938710916</v>
       </c>
       <c r="L6" t="n">
-        <v>537190.3617373421</v>
+        <v>538067.4938710915</v>
       </c>
       <c r="M6" t="n">
-        <v>402389.346503505</v>
+        <v>403266.4786372546</v>
       </c>
       <c r="N6" t="n">
-        <v>537190.3617373422</v>
+        <v>538067.4938710915</v>
       </c>
       <c r="O6" t="n">
-        <v>537190.3617373421</v>
+        <v>538067.493871092</v>
       </c>
       <c r="P6" t="n">
-        <v>537190.3617373422</v>
+        <v>538067.4938710919</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>13.60179276195819</v>
+        <v>31.51108588316109</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4238531296572</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>7.361875848788024</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>257.3378101927851</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>190.7623767421584</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.16060820499012</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>89.5600285556913</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>82.23960884177819</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>316.1488790919085</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>14.59587156758264</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -30468,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>462.3874039146953</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>595.5275127043998</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
